--- a/docs/input_template_rface.xlsx
+++ b/docs/input_template_rface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/slopetools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFEBB88-6075-2D4D-999D-BBCF485D3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F6CFB0-5184-1841-9045-032AC9168BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2740" windowWidth="32160" windowHeight="24340" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="2880" yWindow="2740" windowWidth="32160" windowHeight="24340" activeTab="6" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>X</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t xml:space="preserve">Seismic coefficient (k): </t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Does not move</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E090B-D957-7046-AD33-44E170F709C1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -5100,16 +5106,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5794,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B481A4B-5762-2B4B-BD1E-7996162F3A9D}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5866,6 +5872,12 @@
       <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -5936,7 +5948,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17" xr:uid="{AA25ABA8-BD81-3340-AC36-04678AD547F3}">
-      <formula1>$E$3:$E$4</formula1>
+      <formula1>$E$3:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/input_template_rface.xlsx
+++ b/docs/input_template_rface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/slopetools/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/CursorProjects/slopetools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F6CFB0-5184-1841-9045-032AC9168BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F49D5-4804-FD43-82E6-68D808094F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2740" windowWidth="32160" windowHeight="24340" activeTab="6" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="2880" yWindow="2740" windowWidth="32160" windowHeight="24340" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
   <si>
     <t>X</t>
   </si>
@@ -474,6 +474,18 @@
   </si>
   <si>
     <t>Does not move</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Clay</t>
   </si>
 </sst>
 </file>
@@ -5106,16 +5118,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5123,174 +5135,187 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA88A0E-2BF5-FE49-9603-08BE4D91829B}">
-  <dimension ref="A2:O13"/>
+  <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="28"/>
+      <c r="J2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="22"/>
-      <c r="N2" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="O2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3">
         <v>130</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>200</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>28</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>30</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>120</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="3"/>
+      <c r="O4" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="3">
         <v>120</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>32</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="3"/>
+      <c r="O5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="3">
         <v>132</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>400</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>27</v>
       </c>
-      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="3"/>
+      <c r="O6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5305,8 +5330,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5321,11 +5347,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="N8" s="7" t="s">
+      <c r="M8" s="3"/>
+      <c r="O8" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -5340,14 +5367,15 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="N9" s="1">
+      <c r="M9" s="3"/>
+      <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5362,14 +5390,15 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="N10" s="1">
+      <c r="M10" s="3"/>
+      <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -5384,9 +5413,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5401,9 +5431,10 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -5418,37 +5449,38 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:E13">
+  <conditionalFormatting sqref="E4:F13">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C4="cp"</formula>
+      <formula>$D4="cp"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:G13">
+  <conditionalFormatting sqref="G4:H13">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$C4="mc"</formula>
+      <formula>$D4="mc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:K13">
+  <conditionalFormatting sqref="K4:L13">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C4="cp"</formula>
+      <formula>$D4="cp"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L13">
+  <conditionalFormatting sqref="M4:M13">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$C4="mc"</formula>
+      <formula>$D4="mc"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{339A18D9-2C3F-2E47-9927-C099D7AA59DB}">
-      <formula1>$N$9:$N$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I13" xr:uid="{339A18D9-2C3F-2E47-9927-C099D7AA59DB}">
+      <formula1>$O$9:$O$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C13" xr:uid="{D6CE31A3-485A-D842-BAD0-54ACE6AD61ED}">
-      <formula1>$N$5:$N$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{D6CE31A3-485A-D842-BAD0-54ACE6AD61ED}">
+      <formula1>$O$5:$O$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5460,7 +5492,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M22" activeCellId="9" sqref="A4:B18 D4:E18 G4:H18 J4:K18 M4:N18 A22:B36 D22:E36 G22:H36 J22:K36 M22:N36"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5800,7 +5832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B481A4B-5762-2B4B-BD1E-7996162F3A9D}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
